--- a/Interview_Prep_Curriculum.xlsx
+++ b/Interview_Prep_Curriculum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saharshshukla/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A624138B-2AE8-4F4D-888A-68CBD65BB09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602E7BB0-77FE-DC48-98FC-F9A188EC29CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{F7724235-74FB-F345-A92B-13B23F8860C3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="88">
   <si>
     <t>Day 1</t>
   </si>
@@ -280,6 +280,24 @@
   </si>
   <si>
     <t>Repo</t>
+  </si>
+  <si>
+    <t>Interview-Prep/oop_1 at master · shuklasaharsh/Interview-Prep (github.com)</t>
+  </si>
+  <si>
+    <t>Interview-Prep/sql_1 at master · shuklasaharsh/Interview-Prep (github.com)</t>
+  </si>
+  <si>
+    <t>Interview-Prep/sql_2 at master · shuklasaharsh/Interview-Prep (github.com)</t>
+  </si>
+  <si>
+    <t>Interview-Prep/design_1 at master · shuklasaharsh/Interview-Prep (github.com)</t>
+  </si>
+  <si>
+    <t>Interview-Prep/design_2 at master · shuklasaharsh/Interview-Prep (github.com)</t>
+  </si>
+  <si>
+    <t>Interview-Prep/sdlc_1 at master · shuklasaharsh/Interview-Prep (github.com)</t>
   </si>
 </sst>
 </file>
@@ -360,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -580,6 +598,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -588,7 +617,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
@@ -627,6 +656,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
@@ -948,7 +978,7 @@
   <dimension ref="C1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1058,7 +1088,7 @@
       <c r="H9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="32" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="21" t="s">
@@ -1090,8 +1120,8 @@
       <c r="H10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>35</v>
+      <c r="I10" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="J10" s="5">
         <v>60</v>
@@ -1122,8 +1152,8 @@
       <c r="H11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>35</v>
+      <c r="I11" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="J11" s="8">
         <v>45</v>
@@ -1154,8 +1184,8 @@
       <c r="H12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>35</v>
+      <c r="I12" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="J12" s="8">
         <v>10</v>
@@ -1218,8 +1248,8 @@
       <c r="H14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>35</v>
+      <c r="I14" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="J14" s="8">
         <v>60</v>
@@ -1250,8 +1280,8 @@
       <c r="H15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>35</v>
+      <c r="I15" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="J15" s="8">
         <v>240</v>
@@ -1282,8 +1312,8 @@
       <c r="H16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>35</v>
+      <c r="I16" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="J16" s="8">
         <v>5</v>
@@ -1618,6 +1648,12 @@
     <hyperlink ref="F23" r:id="rId26" display="https://medium.com/@racheltho/how-to-make-tech-interviews-a-little-less-awful-c29f35431987" xr:uid="{0AD9513A-0943-DF4A-8A57-D85D064E0209}"/>
     <hyperlink ref="D8" r:id="rId27" display="https://www.freecodecamp.org/news/free-8-hour-node-express-course/" xr:uid="{97AA7982-B04E-3F4B-9625-1F32C3A1BCFE}"/>
     <hyperlink ref="G4" r:id="rId28" display="https://github.com/shuklasaharsh/Interview-Prep" xr:uid="{71433A2E-6D9A-CA40-88F0-014A2F85C575}"/>
+    <hyperlink ref="I10" r:id="rId29" display="https://github.com/shuklasaharsh/Interview-Prep/tree/master/oop_1" xr:uid="{990A6F2E-7A76-1040-A4B4-81B680DFD847}"/>
+    <hyperlink ref="I11" r:id="rId30" display="https://github.com/shuklasaharsh/Interview-Prep/tree/master/sql_1" xr:uid="{5923A47D-F1A6-3145-B732-221D23E08685}"/>
+    <hyperlink ref="I12" r:id="rId31" display="https://github.com/shuklasaharsh/Interview-Prep/tree/master/sql_2" xr:uid="{A872FEAD-5174-354C-8B4C-1A0DF7DA7959}"/>
+    <hyperlink ref="I15" r:id="rId32" display="https://github.com/shuklasaharsh/Interview-Prep/tree/master/design_1" xr:uid="{0F7EB143-3B14-F747-BEDF-402E6B806B03}"/>
+    <hyperlink ref="I16" r:id="rId33" display="https://github.com/shuklasaharsh/Interview-Prep/tree/master/design_2" xr:uid="{10C04078-5FBD-924E-B23E-FCA2C3C00962}"/>
+    <hyperlink ref="I14" r:id="rId34" display="https://github.com/shuklasaharsh/Interview-Prep/tree/master/sdlc_1" xr:uid="{A13D384B-FB77-6742-BE41-EA9CEC070A9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
